--- a/PhoenixCI/Excel_Template/30223.xlsx
+++ b/PhoenixCI/Excel_Template/30223.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5EEFDC-2533-4D99-A644-537C20B6C6DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A46E953-8B32-400F-B276-488D82A5E9A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="880"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="23655" windowHeight="9795" tabRatio="880"/>
   </bookViews>
   <sheets>
     <sheet name="附件6-1中文公告" sheetId="8" r:id="rId1"/>
@@ -25022,7 +25022,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A496" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A499" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="E507" sqref="E507:E508"/>
     </sheetView>
   </sheetViews>

--- a/PhoenixCI/Excel_Template/30223.xlsx
+++ b/PhoenixCI/Excel_Template/30223.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A46E953-8B32-400F-B276-488D82A5E9A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5EEFDC-2533-4D99-A644-537C20B6C6DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="23655" windowHeight="9795" tabRatio="880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="880"/>
   </bookViews>
   <sheets>
     <sheet name="附件6-1中文公告" sheetId="8" r:id="rId1"/>
@@ -25022,7 +25022,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A499" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A496" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E507" sqref="E507:E508"/>
     </sheetView>
   </sheetViews>
